--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_24.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1564244.646422225</v>
+        <v>1520694.765146739</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>155.9452381968312</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>102.5637353995019</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>22.05029585290865</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>184.8129010531349</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>44.64130008435401</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>298.1689170259747</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>87.35870881338901</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>139.6528551206851</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>251.6298792882203</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>10.50623107476266</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>26.18618792065419</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>48.60603564323158</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0.7644211441608035</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>101.1426547140132</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>66.14085215535403</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>57.64843562452468</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>91.96863582686773</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385011</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.0455722272038</v>
+        <v>97.24017938133905</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>33.35146980185854</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>16.27740963505594</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>92.96146126744014</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>128.4285848360769</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -3013,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>130.8636020495567</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>120.0055200834153</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>33.35146980185944</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3676,10 +3676,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>66.14085215535403</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>101.6725273523237</v>
       </c>
     </row>
     <row r="41">
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>17.96449086431781</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3952,19 +3952,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>132.5906791667248</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>95.02525064967651</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2538.520668821946</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2538.520668821946</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2185.752013551832</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>1812.286255290752</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.14692331494</v>
+        <v>1521.073833303755</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.3478788207</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="C4" t="n">
-        <v>257.3478788207</v>
+        <v>121.8725323672793</v>
       </c>
       <c r="D4" t="n">
-        <v>257.3478788207</v>
+        <v>121.8725323672793</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>512.0323670265868</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>257.3478788207</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>257.3478788207</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X4" t="n">
-        <v>257.3478788207</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="Y4" t="n">
-        <v>257.3478788207</v>
+        <v>290.8087152951862</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>919.5755868835438</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="C5" t="n">
-        <v>919.5755868835438</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="D5" t="n">
-        <v>919.5755868835438</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>919.5755868835438</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>508.5896820939362</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>919.5755868835438</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>289.0740493317991</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>343.360151857325</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>470.7225141620388</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.118241157406</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1881.118241157406</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1522.852542550656</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1137.064289952412</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>726.0783851628041</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>308.114577060991</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2686.53673639725</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2686.53673639725</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2686.53673639725</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2686.53673639725</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="X8" t="n">
-        <v>1881.118241157406</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y8" t="n">
-        <v>1881.118241157406</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>672.2613701907085</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>417.5768819848216</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>417.5768819848216</v>
+        <v>649.6150593598222</v>
       </c>
       <c r="X10" t="n">
-        <v>417.5768819848216</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.5768819848216</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5039,13 +5039,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5127,13 +5127,13 @@
         <v>738.0704661731477</v>
       </c>
       <c r="M12" t="n">
-        <v>1058.405785702849</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N12" t="n">
-        <v>1862.817363967</v>
+        <v>1850.959268203227</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2099.712682287189</v>
       </c>
       <c r="P12" t="n">
         <v>2554.178946862809</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.3109288932102</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3747459653033</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
         <v>527.3450129705744</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X13" t="n">
-        <v>1396.75197286698</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.95939372345</v>
+        <v>675.0071030383442</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>754.8724882112625</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="M15" t="n">
-        <v>1523.240634603724</v>
+        <v>1157.264000062947</v>
       </c>
       <c r="N15" t="n">
-        <v>2327.652212867875</v>
+        <v>1961.675578327098</v>
       </c>
       <c r="O15" t="n">
-        <v>2327.652212867875</v>
+        <v>2210.42899241106</v>
       </c>
       <c r="P15" t="n">
-        <v>2510.295690481226</v>
+        <v>2393.072470024411</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X16" t="n">
-        <v>1432.107328986838</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="N18" t="n">
-        <v>2107.322705390779</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O18" t="n">
-        <v>2386.862770609477</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3686.322319899658</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="C19" t="n">
-        <v>3517.386136971751</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="D19" t="n">
-        <v>3459.155393916676</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="E19" t="n">
-        <v>3459.155393916676</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="F19" t="n">
-        <v>3459.155393916676</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>4860.854573014292</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>4860.854573014292</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V19" t="n">
-        <v>4606.170084808406</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="W19" t="n">
-        <v>4316.752914771445</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="X19" t="n">
-        <v>4088.763363873428</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="Y19" t="n">
-        <v>3867.970784729898</v>
+        <v>620.2426249169056</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,22 +5762,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250802</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>2649.889045452862</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L21" t="n">
-        <v>2649.889045452862</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M21" t="n">
-        <v>3418.257191845323</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>4222.668770109474</v>
+        <v>2107.32270539078</v>
       </c>
       <c r="O21" t="n">
-        <v>4502.208835328172</v>
+        <v>2386.862770609478</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557068</v>
+        <v>2591.885251391687</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1029.666285013068</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C22" t="n">
-        <v>860.7301020851612</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>710.6134626728254</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,10 +5926,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
         <v>1387.841167119728</v>
@@ -5938,22 +5938,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1164.055751909234</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V22" t="n">
-        <v>1164.055751909234</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="W22" t="n">
-        <v>1164.055751909234</v>
+        <v>809.295358296326</v>
       </c>
       <c r="X22" t="n">
-        <v>1164.055751909234</v>
+        <v>809.295358296326</v>
       </c>
       <c r="Y22" t="n">
-        <v>1164.055751909234</v>
+        <v>809.295358296326</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6008,16 +6008,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.357857465301</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126481</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="L24" t="n">
-        <v>263.5382936126481</v>
+        <v>2948.395228855329</v>
       </c>
       <c r="M24" t="n">
-        <v>808.8370773579852</v>
+        <v>3436.041841080101</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>3765.904468744134</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281175</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494733</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>3782.260917288846</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>3492.843747251885</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916675</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="26">
@@ -6203,25 +6203,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
@@ -6242,31 +6242,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>711.1141612171745</v>
+        <v>479.098332261396</v>
       </c>
       <c r="M27" t="n">
-        <v>1479.482307609636</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1659.000326757765</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2328.464088060424</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>471.5883316929525</v>
+        <v>988.7065213774116</v>
       </c>
       <c r="C28" t="n">
-        <v>302.6521487650456</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
-        <v>302.6521487650456</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>302.6521487650456</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>302.6521487650456</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>302.6521487650456</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6415,19 +6415,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344999</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>692.3809108364826</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y28" t="n">
-        <v>471.5883316929525</v>
+        <v>988.7065213774116</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,22 +6446,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6479,16 +6479,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,25 +6528,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>479.098332261396</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>479.098332261396</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
         <v>1247.466478653857</v>
@@ -6616,7 +6616,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6661,10 +6661,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.916270557902</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y31" t="n">
-        <v>1322.84934122136</v>
+        <v>1270.926719659885</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,34 +6716,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>758.6383974800932</v>
+        <v>578.5528938194192</v>
       </c>
       <c r="M33" t="n">
-        <v>1527.006543872555</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N33" t="n">
-        <v>2331.418122136705</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>692.3809108364826</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C34" t="n">
-        <v>692.3809108364826</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6889,19 +6889,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W34" t="n">
-        <v>920.3704617344999</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X34" t="n">
-        <v>692.3809108364826</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y34" t="n">
-        <v>692.3809108364826</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,7 +6953,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2107.322705390779</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="O36" t="n">
-        <v>2386.862770609477</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916676</v>
+        <v>1093.482390517169</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916676</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916676</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916676</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>4036.945405494735</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V37" t="n">
-        <v>3782.260917288848</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W37" t="n">
-        <v>3492.843747251887</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X37" t="n">
-        <v>3459.155393916676</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916676</v>
+        <v>1275.130855347408</v>
       </c>
     </row>
     <row r="38">
@@ -7172,7 +7172,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7254,19 +7254,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>745.6707680030239</v>
+        <v>1221.303267826019</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1029.666285013068</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C40" t="n">
-        <v>860.7301020851612</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D40" t="n">
-        <v>710.6134626728254</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7360,22 +7360,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X40" t="n">
-        <v>1432.107328986838</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y40" t="n">
-        <v>1211.314749843308</v>
+        <v>1172.431332769303</v>
       </c>
     </row>
     <row r="41">
@@ -7409,7 +7409,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7427,10 +7427,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>2014.170812493408</v>
       </c>
       <c r="N42" t="n">
-        <v>2107.322705390779</v>
+        <v>2344.033440157441</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="E43" t="n">
         <v>674.2349604684848</v>
@@ -7600,19 +7600,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.916270557902</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y43" t="n">
-        <v>1322.84934122136</v>
+        <v>692.3809108364826</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>549.5984374701561</v>
+        <v>754.8724882112625</v>
       </c>
       <c r="M45" t="n">
-        <v>1317.966583862617</v>
+        <v>1062.192621491224</v>
       </c>
       <c r="N45" t="n">
-        <v>2072.034695955443</v>
+        <v>1392.055249155257</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7834,22 +7834,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.499100520942</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.513998854602</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.7214197110717</v>
+        <v>1275.130855347408</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,25 +9243,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9714,22 +9714,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>182.1479585301116</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9957,25 +9957,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>303.1409873357512</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>303.1409873357512</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,19 +11136,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>422.7525727266637</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11382,19 +11382,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>137.9476282330537</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>145.6695415024084</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>124.5670006750239</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>159.5688032336831</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>90.96703739368768</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>53.45241219606352</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.78640795473351</v>
+        <v>82.59180080059825</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,16 +24178,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24260,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>192.3581855871786</v>
+        <v>159.5688032336831</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>150.9694114635719</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>55.95236710009598</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>51.40339534586045</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>17.75187096865565</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25129,10 +25129,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>47.24130101521249</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25357,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3581855871777</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25612,10 +25612,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>159.5688032336831</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>116.9121259997711</v>
       </c>
     </row>
     <row r="41">
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>128.4694717822514</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25840,19 +25840,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>47.24130101521254</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>130.6844047393606</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185699</v>
@@ -26329,7 +26329,7 @@
         <v>469234.8716852503</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852504</v>
@@ -26338,19 +26338,19 @@
         <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="N2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="O2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>469234.8716852506</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852505</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,31 +26418,31 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758695</v>
@@ -26451,13 +26451,13 @@
         <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26482,22 +26482,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319261.0345400033</v>
+        <v>-319261.0345400029</v>
       </c>
       <c r="C6" t="n">
-        <v>270706.8446745414</v>
+        <v>270706.8446745413</v>
       </c>
       <c r="D6" t="n">
         <v>270706.8446745414</v>
       </c>
       <c r="E6" t="n">
-        <v>-148700.2844309383</v>
+        <v>-148700.2844309384</v>
       </c>
       <c r="F6" t="n">
-        <v>376459.7520459578</v>
+        <v>376459.7520459577</v>
       </c>
       <c r="G6" t="n">
-        <v>376459.7520459578</v>
+        <v>376459.7520459577</v>
       </c>
       <c r="H6" t="n">
-        <v>376459.752045958</v>
+        <v>376459.7520459577</v>
       </c>
       <c r="I6" t="n">
-        <v>376459.752045958</v>
+        <v>376459.7520459582</v>
       </c>
       <c r="J6" t="n">
-        <v>200036.5328533649</v>
+        <v>200036.5328533651</v>
       </c>
       <c r="K6" t="n">
-        <v>376459.752045958</v>
+        <v>376459.7520459581</v>
       </c>
       <c r="L6" t="n">
         <v>376459.7520459579</v>
       </c>
       <c r="M6" t="n">
-        <v>241658.736812121</v>
+        <v>241658.7368121208</v>
       </c>
       <c r="N6" t="n">
+        <v>376459.7520459578</v>
+      </c>
+      <c r="O6" t="n">
+        <v>376459.7520459579</v>
+      </c>
+      <c r="P6" t="n">
         <v>376459.752045958</v>
-      </c>
-      <c r="O6" t="n">
-        <v>376459.7520459581</v>
-      </c>
-      <c r="P6" t="n">
-        <v>376459.7520459581</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26750,10 +26750,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26802,7 +26802,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>209.3276535741763</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>148.6604321087874</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>124.3836667936605</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>101.4689731888429</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>310.0417415363289</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>115.6152529948203</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>79.88811228523882</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>146.6290191212926</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>72.2928934761369</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>43.97217150004905</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>260.0956863213236</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>237.9169626933594</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31379,25 +31379,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392718</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>111.7343803072874</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31616,7 +31616,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31847,16 +31847,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>262.5905971701974</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>274.5684716790595</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724846</v>
@@ -32090,13 +32090,13 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.32652159755864</v>
+        <v>162.7338149882808</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>137.4682402278079</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>285.0631269188133</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>89.7670278944907</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>171.9901114440528</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,16 +32786,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>227.2358224400356</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813461</v>
@@ -33023,31 +33023,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>331.8073893088567</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>312.6730445561909</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33263,13 +33263,13 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>217.2046500787021</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>396.5537155454428</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813461</v>
@@ -33497,31 +33497,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>223.6148191969775</v>
+        <v>127.2880165989362</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33746,19 +33746,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>285.0631269188133</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33977,13 +33977,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>104.1410952726936</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34223,13 +34223,13 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>158.8779635226622</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34445,22 +34445,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>413.6842994497047</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
@@ -34469,7 +34469,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>513.8566720024825</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>459.0568329046665</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004662</v>
@@ -35738,13 +35738,13 @@
         <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>114.4220352473862</v>
+        <v>232.8293286381084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>6.126528144474575</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>151.0887195044831</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>274.2553891200976</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>32.00833735803128</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>550.8068522680172</v>
+        <v>492.5723355805778</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>193.2530095289825</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>181.3313324728576</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8284481169217</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415663</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>85.06043941710337</v>
+        <v>359.5739821225212</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>585.5046895768593</v>
       </c>
       <c r="P36" t="n">
-        <v>151.0887195044831</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>336.4270607962786</v>
+        <v>552.3986922917754</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>733.1769497771299</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>16.28171907821782</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,10 +38023,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>761.6849617099249</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>420.3113304741618</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1752473.797681388</v>
+        <v>1828003.467346193</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1520694.765146739</v>
+        <v>1382713.33935415</v>
       </c>
     </row>
     <row r="8">
@@ -817,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22.05029585290865</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>49.52297001931463</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>44.64130008435401</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>372.3935585544884</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>87.35870881338901</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>10.6400721734892</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>84.67670117615879</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>10.50623107476266</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>44.58467420294768</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>48.60603564323158</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7644211441608035</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,10 +1587,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1816,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>141.9899522509779</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185877</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>91.96863582686773</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>12.23734460216839</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.24017938133905</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>104.3370797092945</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>32.8965767413804</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>66.14085215535403</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>16.27740963505594</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>119.455025053688</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>128.4285848360769</v>
+        <v>67.61524188852295</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>18.6425165893258</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>161.1706059301398</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>120.0055200834153</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>136.9575509524583</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3475,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3670,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>101.6725273523237</v>
+        <v>73.94793599547316</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3901,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>17.96449086431781</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3915,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>70.85031738433209</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.5906791667248</v>
+        <v>132.5906791667254</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4401,28 +4403,28 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
         <v>2627.754532504893</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.8087152951862</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="C4" t="n">
-        <v>121.8725323672793</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="D4" t="n">
-        <v>121.8725323672793</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>240.2950947614279</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951862</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>290.8087152951862</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>290.8087152951862</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X4" t="n">
-        <v>290.8087152951862</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.8087152951862</v>
+        <v>409.2948950230955</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1408.645612988121</v>
+        <v>1739.708500331691</v>
       </c>
       <c r="C5" t="n">
-        <v>1408.645612988121</v>
+        <v>1739.708500331691</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1739.708500331691</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4562,22 +4564,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>1739.708500331691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1408.645612988121</v>
+        <v>1739.708500331691</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>289.0740493317991</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>717.3814365564451</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>717.3814365564451</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>717.3814365564451</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>717.3814365564451</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>717.3814365564451</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>717.3814365564451</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>717.3814365564451</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>489.3918856584278</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.7225141620388</v>
+        <v>268.5993065148976</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>550.4609080000314</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>139.4750032104238</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2686.53673639725</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2686.53673639725</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2686.53673639725</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2686.53673639725</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2355.473849053679</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2355.473849053679</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.008090792599</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>649.6150593598222</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>421.6255084618049</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="11">
@@ -5033,13 +5035,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
@@ -5066,7 +5068,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>738.0704661731477</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="M12" t="n">
-        <v>1506.438612565609</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N12" t="n">
-        <v>1850.959268203227</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2099.712682287189</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.0071030383442</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C13" t="n">
-        <v>675.0071030383442</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D13" t="n">
-        <v>675.0071030383442</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5229,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383442</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>675.0071030383442</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>675.0071030383442</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.0071030383442</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704856</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="L15" t="n">
-        <v>388.8958536704856</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="M15" t="n">
-        <v>1157.264000062947</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N15" t="n">
-        <v>1961.675578327098</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2210.42899241106</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2393.072470024411</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5466,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954967</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028589</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047986</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061688</v>
+        <v>3525.606699852205</v>
       </c>
       <c r="M18" t="n">
-        <v>1122.004430061688</v>
+        <v>3845.942019381906</v>
       </c>
       <c r="N18" t="n">
-        <v>1128.069692924717</v>
+        <v>4360.063122803649</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>4608.816536887612</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>4791.460014500963</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>620.2426249169056</v>
+        <v>3904.075074409315</v>
       </c>
       <c r="C19" t="n">
-        <v>620.2426249169056</v>
+        <v>3904.075074409315</v>
       </c>
       <c r="D19" t="n">
-        <v>620.2426249169056</v>
+        <v>3753.958434996979</v>
       </c>
       <c r="E19" t="n">
-        <v>620.2426249169056</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227924</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V19" t="n">
-        <v>620.2426249169056</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="W19" t="n">
-        <v>620.2426249169056</v>
+        <v>4313.713090137572</v>
       </c>
       <c r="X19" t="n">
-        <v>620.2426249169056</v>
+        <v>4085.723539239555</v>
       </c>
       <c r="Y19" t="n">
-        <v>620.2426249169056</v>
+        <v>4085.723539239555</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,22 +5764,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277035</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2107.32270539078</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O21" t="n">
-        <v>2386.862770609478</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2591.885251391687</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333287</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1098.712528333287</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>809.295358296326</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X22" t="n">
-        <v>809.295358296326</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y22" t="n">
-        <v>809.295358296326</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,31 +5974,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6005,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2334.498159098441</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2334.498159098441</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>2948.395228855329</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M24" t="n">
-        <v>3436.041841080101</v>
+        <v>994.7638819868627</v>
       </c>
       <c r="N24" t="n">
-        <v>3765.904468744134</v>
+        <v>1799.175460251013</v>
       </c>
       <c r="O24" t="n">
-        <v>4045.444533962831</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1029.666285013068</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="C25" t="n">
-        <v>860.7301020851612</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4827.625707618959</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4627.705697534511</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>4403.920282324018</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>4114.791643537576</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>3860.107155331689</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.916270557902</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="X25" t="n">
-        <v>1432.107328986838</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1211.314749843308</v>
+        <v>3570.689985294728</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L27" t="n">
-        <v>479.098332261396</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>570.8584268926097</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>988.7065213774116</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6412,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1154.469213879036</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>1154.469213879036</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.499100520942</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.7065213774116</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="29">
@@ -6437,58 +6439,58 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>389.8548183036378</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>1003.751888060526</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1003.751888060526</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6616,7 +6618,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6658,13 +6660,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X31" t="n">
-        <v>1270.926719659885</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y31" t="n">
-        <v>1270.926719659885</v>
+        <v>1209.499100520942</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6725,25 +6727,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>222.5746515181232</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5528938194192</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M33" t="n">
-        <v>1346.921040211881</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="N33" t="n">
-        <v>1691.441695849499</v>
+        <v>1207.29799103357</v>
       </c>
       <c r="O33" t="n">
-        <v>2360.905457152158</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2543.548934765509</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005285</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028583</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>1336.117678709276</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W34" t="n">
-        <v>1046.700508672316</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X34" t="n">
-        <v>818.7109577742983</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.9183786307682</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N36" t="n">
-        <v>1228.513823643586</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1093.482390517169</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G37" t="n">
         <v>359.1696912903951</v>
@@ -7090,7 +7092,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7123,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1275.130855347408</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.130855347408</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>1275.130855347408</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.130855347408</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,22 +7159,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7259,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1221.303267826019</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1528.62340110598</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>990.7828679390639</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C40" t="n">
-        <v>821.846685011157</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D40" t="n">
-        <v>671.7300455988212</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>1275.130855347408</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W40" t="n">
-        <v>1275.130855347408</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X40" t="n">
-        <v>1275.130855347408</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="Y40" t="n">
-        <v>1172.431332769303</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="41">
@@ -7391,19 +7393,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7412,7 +7414,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>2948.395228855329</v>
       </c>
       <c r="M42" t="n">
-        <v>2014.170812493408</v>
+        <v>3566.418766731886</v>
       </c>
       <c r="N42" t="n">
-        <v>2344.033440157441</v>
+        <v>3896.281394395919</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>692.3809108364826</v>
+        <v>781.8780707889955</v>
       </c>
       <c r="C43" t="n">
-        <v>692.3809108364826</v>
+        <v>781.8780707889955</v>
       </c>
       <c r="D43" t="n">
-        <v>692.3809108364826</v>
+        <v>631.7614313766597</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>483.8483377942666</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>336.9583902963562</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>168.7830686161768</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W43" t="n">
-        <v>920.3704617344999</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X43" t="n">
-        <v>692.3809108364826</v>
+        <v>781.8780707889955</v>
       </c>
       <c r="Y43" t="n">
-        <v>692.3809108364826</v>
+        <v>781.8780707889955</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7630,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7728,25 +7730,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>754.8724882112625</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>1062.192621491224</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N45" t="n">
-        <v>1392.055249155257</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>4503.13917884751</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.130855347408</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.130855347408</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="X46" t="n">
-        <v>1275.130855347408</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.130855347408</v>
+        <v>4637.069157803799</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8766,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>186.1196724825353</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>252.3101161788464</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>182.1479585301116</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>45.17786041263116</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,19 +9962,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>240.382475217551</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,22 +10427,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>324.5711212852631</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10668,16 +10670,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>303.1409873357512</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10905,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>303.1409873357512</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>268.0367344586617</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>422.7525727266637</v>
+        <v>313.8418228248438</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,19 +11378,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>137.9476282330537</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23422,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>145.6695415024084</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23704,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>79.55760880741138</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>53.45241219606352</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>274.2856537344226</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.59180080059825</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>44.27839330891788</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24181,19 +24183,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>77.0677756624124</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>159.5688032336831</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>150.9694114635719</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>166.7823273448893</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>51.40339534586045</v>
+        <v>112.2167382934144</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>148.604304509302</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>90.9670373936882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>47.24130101521249</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>8.463497070472982</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25363,16 +25365,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>116.9121259997711</v>
+        <v>144.6367173566216</v>
       </c>
     </row>
     <row r="41">
@@ -25789,10 +25791,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>128.4694717822514</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>78.06351098320404</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.24130101521254</v>
+        <v>47.24130101521186</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="15">
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852504</v>
@@ -26341,16 +26343,16 @@
         <v>469234.8716852506</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="M2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852505</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758694</v>
@@ -26430,31 +26432,31 @@
         <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="L4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="M4" t="n">
         <v>787.7936905758696</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758697</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26476,31 +26478,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319261.0345400029</v>
+        <v>-319261.0345400031</v>
       </c>
       <c r="C6" t="n">
-        <v>270706.8446745413</v>
+        <v>270706.8446745411</v>
       </c>
       <c r="D6" t="n">
         <v>270706.8446745414</v>
       </c>
       <c r="E6" t="n">
-        <v>-148700.2844309384</v>
+        <v>-148700.2844309378</v>
       </c>
       <c r="F6" t="n">
-        <v>376459.7520459577</v>
+        <v>376459.752045958</v>
       </c>
       <c r="G6" t="n">
-        <v>376459.7520459577</v>
+        <v>376459.7520459579</v>
       </c>
       <c r="H6" t="n">
-        <v>376459.7520459577</v>
+        <v>376459.7520459581</v>
       </c>
       <c r="I6" t="n">
-        <v>376459.7520459582</v>
+        <v>376459.752045958</v>
       </c>
       <c r="J6" t="n">
-        <v>200036.5328533651</v>
+        <v>200036.532853365</v>
       </c>
       <c r="K6" t="n">
         <v>376459.7520459581</v>
       </c>
       <c r="L6" t="n">
-        <v>376459.7520459579</v>
+        <v>376459.7520459578</v>
       </c>
       <c r="M6" t="n">
-        <v>241658.7368121208</v>
+        <v>241658.7368121206</v>
       </c>
       <c r="N6" t="n">
-        <v>376459.7520459578</v>
+        <v>376459.752045958</v>
       </c>
       <c r="O6" t="n">
-        <v>376459.7520459579</v>
+        <v>376459.7520459581</v>
       </c>
       <c r="P6" t="n">
         <v>376459.752045958</v>
@@ -26744,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26802,7 +26804,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27537,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>124.3836667936605</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>106.6479188224805</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>310.0417415363289</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>9.536811517773401</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>79.88811228523882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,10 +27785,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>18.48267778142511</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27855,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>329.1074688446362</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.97217150004905</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>122.7251280561032</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>237.9169626933594</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31127,7 +31129,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>61.04368814949358</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,7 +31147,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -31373,7 +31375,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993417</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,7 +31384,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>111.7343803072874</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31616,13 +31618,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>206.0574661162476</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>274.5684716790595</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,37 +32077,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>402.5245398126768</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.7338149882808</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>137.4682402278079</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>171.9901114440528</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,16 +32788,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813461</v>
@@ -32810,7 +32812,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -33026,10 +33028,10 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>331.8073893088567</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33263,19 +33265,19 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0.9686511445981552</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>396.5537155454428</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
@@ -33284,7 +33286,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33497,31 +33499,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>127.2880165989362</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33737,25 +33739,25 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>41.93843809132551</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33983,7 +33985,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33992,7 +33994,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34208,10 +34210,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
@@ -34229,7 +34231,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34448,16 +34450,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>396.4775252873441</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34469,7 +34471,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>60.29709682323572</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279158</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35030,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>529.6284959442291</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>459.0568329046665</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>726.0955696406584</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8293286381084</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>6.126528144474575</v>
+        <v>519.3142458805481</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>585.5046895768593</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.00833735803128</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>492.5723355805778</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>327.5415626537393</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>193.2530095289825</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>573.5770486155639</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>127.5924491828178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>359.5739821225212</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>606.9348235263712</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37385,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>585.5046895768593</v>
+        <v>293.2045129236106</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>552.3986922917754</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>550.4004366997698</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>733.1769497771299</v>
+        <v>624.26619987531</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38096,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>265.1358132040107</v>
       </c>
       <c r="O45" t="n">
-        <v>420.3113304741618</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38117,7 +38119,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1828003.467346193</v>
+        <v>1820986.452454481</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1382713.33935415</v>
+        <v>612584.65190609</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>155.9452381968312</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>112.1443580694847</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>49.52297001931463</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>235.5000960026868</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>372.3935585544884</v>
+        <v>79.13678349751333</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,13 +946,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>6.935486919842822</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.6400721734892</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>84.67670117615879</v>
+        <v>83.69283718035074</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586891</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>44.58467420294768</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634776</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>34.94676868416073</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>33.35146980185857</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>50.58981020589772</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>141.9899522509779</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,13 +2058,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>12.23734460216839</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>104.3370797092945</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>32.8965767413804</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,7 +2535,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>167.5476332178971</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
-        <v>119.455025053688</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>67.61524188852295</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>18.6425165893258</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>206.8933087008745</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>136.9575509524583</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>255.8134085375531</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.94793599547316</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>70.85031738433209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>15.74955790720865</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.5906791667254</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1521.073833303755</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2583.871961655107</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2365.237294627169</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2111.475509265261</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="X2" t="n">
-        <v>1521.073833303755</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y2" t="n">
-        <v>1521.073833303755</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>113.6371076753678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>368.8844281164663</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>773.5003462121382</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1297.647259770169</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.37379586972</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>409.2948950230955</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>409.2948950230955</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>409.2948950230955</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>409.2948950230955</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>409.2948950230955</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>240.2950947614279</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230955</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>409.2948950230955</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>409.2948950230955</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1739.708500331691</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="C5" t="n">
-        <v>1739.708500331691</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="D5" t="n">
-        <v>1739.708500331691</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4564,22 +4564,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862885</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331691</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y5" t="n">
-        <v>1739.708500331691</v>
+        <v>1443.489535627676</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4673,16 +4673,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207637</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5993065148976</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>268.5993065148976</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5993065148976</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148976</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148976</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>717.3814365564451</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>717.3814365564451</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>717.3814365564451</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>717.3814365564451</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>717.3814365564451</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>717.3814365564451</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>717.3814365564451</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>489.3918856584278</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.5993065148976</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>936.2491605982757</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C8" t="n">
-        <v>936.2491605982757</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D8" t="n">
-        <v>936.2491605982757</v>
+        <v>935.255358582308</v>
       </c>
       <c r="E8" t="n">
-        <v>550.4609080000314</v>
+        <v>549.4671059840637</v>
       </c>
       <c r="F8" t="n">
-        <v>139.4750032104238</v>
+        <v>138.4812011944561</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
         <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y8" t="n">
-        <v>936.2491605982757</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4901,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.7118141694736</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>438.7118141694736</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>438.7118141694736</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>438.7118141694736</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="L12" t="n">
-        <v>674.4285624571608</v>
+        <v>711.1141612171743</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441948</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2072.756377331216</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.9054447954965</v>
+        <v>391.9645427683686</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9054447954965</v>
+        <v>391.9645427683686</v>
       </c>
       <c r="D13" t="n">
-        <v>130.9054447954965</v>
+        <v>391.9645427683686</v>
       </c>
       <c r="E13" t="n">
-        <v>130.9054447954965</v>
+        <v>244.0514491859755</v>
       </c>
       <c r="F13" t="n">
-        <v>130.9054447954965</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>130.9054447954965</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>130.9054447954965</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471189</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>909.3712637033465</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>619.9540936663859</v>
       </c>
       <c r="X13" t="n">
-        <v>130.9054447954965</v>
+        <v>391.9645427683686</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.9054447954965</v>
+        <v>391.9645427683686</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,31 +5296,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L15" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M15" t="n">
-        <v>857.5427825698953</v>
+        <v>865.5852378527471</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.0663679705859</v>
+        <v>613.801187480228</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1044.496962842373</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1044.496962842373</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.496962842373</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>1044.496962842373</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X16" t="n">
-        <v>816.5074119443557</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y16" t="n">
-        <v>595.7148328008255</v>
+        <v>795.4496523104677</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,19 +5512,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095316</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L18" t="n">
-        <v>3525.606699852205</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M18" t="n">
-        <v>3845.942019381906</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>4360.063122803649</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>4608.816536887612</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>4791.460014500963</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3904.075074409315</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>3904.075074409315</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>3753.958434996979</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>4326.074044281177</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>4326.074044281177</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>4313.713090137572</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>4085.723539239555</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y19" t="n">
-        <v>4085.723539239555</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,16 +5755,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1096.475226584133</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>927.5390436562259</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>1498.916270557902</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y22" t="n">
-        <v>1278.123691414372</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>674.4285624571609</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>994.7638819868627</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1799.175460251013</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3570.689985294728</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C25" t="n">
-        <v>3570.689985294728</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>3570.689985294728</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>3570.689985294728</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>3570.689985294728</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>3570.689985294728</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4827.625707618959</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4627.705697534511</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4403.920282324018</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4114.791643537576</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.107155331689</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W25" t="n">
-        <v>3570.689985294728</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X25" t="n">
-        <v>3570.689985294728</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y25" t="n">
-        <v>3570.689985294728</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,10 +6223,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6244,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>263.5382936126482</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>570.8584268926097</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1154.469213879036</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1154.469213879036</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>865.0520438420759</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>637.0624929440586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>389.8548183036378</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1003.751888060526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1003.751888060526</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.499100520942</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>1209.499100520942</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,37 +6694,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>263.5382936126481</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>877.4353633695368</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>877.4353633695368</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1207.29799103357</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>675.007103038344</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C34" t="n">
-        <v>656.1762782006411</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D34" t="n">
-        <v>506.0596387883054</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>675.007103038344</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>675.007103038344</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>675.007103038344</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="Y34" t="n">
-        <v>675.007103038344</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="35">
@@ -6916,34 +6916,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>618.8589595388348</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>939.1942790685366</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1743.605857332687</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y37" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="38">
@@ -7153,28 +7153,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7192,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O39" t="n">
-        <v>2103.272883640391</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>564.1830073829216</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.21084526296</v>
+        <v>1240.518888196738</v>
       </c>
       <c r="V40" t="n">
-        <v>820.5263570570736</v>
+        <v>985.8343999908507</v>
       </c>
       <c r="W40" t="n">
-        <v>820.5263570570736</v>
+        <v>696.41722995389</v>
       </c>
       <c r="X40" t="n">
-        <v>820.5263570570736</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y40" t="n">
-        <v>745.8314722131613</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="41">
@@ -7393,43 +7393,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>2334.498159098441</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>2948.395228855329</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>3566.418766731886</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>3896.281394395919</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>4565.745155698578</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8780707889955</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8780707889955</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7614313766597</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>483.8483377942666</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>336.9583902963562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>168.7830686161768</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>1483.007626207187</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.867621687013</v>
+        <v>1483.007626207187</v>
       </c>
       <c r="W43" t="n">
-        <v>1009.867621687013</v>
+        <v>1193.590456170226</v>
       </c>
       <c r="X43" t="n">
-        <v>781.8780707889955</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="Y43" t="n">
-        <v>781.8780707889955</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7730,25 +7730,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>865.5852378527472</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4503.13917884751</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>4334.202995919603</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>4637.069157803799</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>4637.069157803799</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>4637.069157803799</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>4637.069157803799</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>4637.069157803799</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9023,13 +9023,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>186.1196724825353</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>252.3101161788464</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>195.7226894765961</v>
       </c>
       <c r="O24" t="n">
-        <v>45.17786041263116</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>240.382475217551</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>324.5711212852631</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>268.0367344586617</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>313.8418228248438</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>110.4742793387705</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>77.06777566241342</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>116.6570108927301</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>79.55760880741138</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>274.2856537344226</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>44.27839330891788</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="23">
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>77.0677756624124</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>84.5900101059309</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
-        <v>166.7823273448893</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>112.2167382934144</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>148.604304509302</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>18.81634668816264</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>36.51615797628583</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>8.463497070472982</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>30.42394386102424</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>144.6367173566216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>78.06351098320404</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>270.4877944913687</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.24130101521186</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967306</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967306</v>
       </c>
     </row>
     <row r="14">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185695</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="F2" t="n">
         <v>469234.8716852505</v>
@@ -26331,16 +26331,16 @@
         <v>469234.8716852504</v>
       </c>
       <c r="H2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="I2" t="n">
         <v>469234.8716852505</v>
-      </c>
-      <c r="I2" t="n">
-        <v>469234.8716852504</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852503</v>
@@ -26352,10 +26352,10 @@
         <v>469234.8716852504</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768954</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758696</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758693</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26493,19 +26493,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319261.0345400031</v>
+        <v>-319261.0345400035</v>
       </c>
       <c r="C6" t="n">
+        <v>270706.844674541</v>
+      </c>
+      <c r="D6" t="n">
         <v>270706.8446745411</v>
       </c>
-      <c r="D6" t="n">
-        <v>270706.8446745414</v>
-      </c>
       <c r="E6" t="n">
-        <v>-148700.2844309378</v>
+        <v>-149674.8756906592</v>
       </c>
       <c r="F6" t="n">
-        <v>376459.752045958</v>
+        <v>375485.1607862364</v>
       </c>
       <c r="G6" t="n">
-        <v>376459.7520459579</v>
+        <v>375485.1607862361</v>
       </c>
       <c r="H6" t="n">
-        <v>376459.7520459581</v>
+        <v>375485.1607862362</v>
       </c>
       <c r="I6" t="n">
-        <v>376459.752045958</v>
+        <v>375485.1607862364</v>
       </c>
       <c r="J6" t="n">
-        <v>200036.532853365</v>
+        <v>199061.9415936434</v>
       </c>
       <c r="K6" t="n">
-        <v>376459.7520459581</v>
+        <v>375485.1607862362</v>
       </c>
       <c r="L6" t="n">
-        <v>376459.7520459578</v>
+        <v>375485.1607862361</v>
       </c>
       <c r="M6" t="n">
-        <v>241658.7368121206</v>
+        <v>240684.1455523992</v>
       </c>
       <c r="N6" t="n">
-        <v>376459.752045958</v>
+        <v>375485.1607862363</v>
       </c>
       <c r="O6" t="n">
-        <v>376459.7520459581</v>
+        <v>375485.1607862361</v>
       </c>
       <c r="P6" t="n">
-        <v>376459.752045958</v>
+        <v>375485.1607862363</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370131</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>209.3276535741763</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>62.27135473948688</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27548,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>106.6479188224805</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>50.78177823929096</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>9.536811517773401</v>
+        <v>302.7935865747485</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27779,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>160.3743153392081</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.48267778142511</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>329.1074688446362</v>
+        <v>330.0913328404442</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060684</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>122.7251280561032</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31129,7 +31129,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>61.04368814949358</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31144,13 +31144,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516338</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31369,13 +31369,13 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.43447689993417</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
@@ -31767,16 +31767,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946991</v>
@@ -31791,7 +31791,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
         <v>0.2670576580354892</v>
@@ -31837,40 +31837,40 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>206.0574661162476</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>301.7970625436791</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,19 +31916,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
@@ -31937,22 +31937,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>402.5245398126768</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>102.4943942860912</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,16 +32314,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813461</v>
@@ -32551,13 +32551,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>315.882135905433</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,13 +32566,13 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32788,28 +32788,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -33025,28 +33025,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33262,28 +33262,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9686511445981552</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33426,7 +33426,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
@@ -33499,28 +33499,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130947006</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33736,25 +33736,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>41.93843809132551</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -33918,7 +33918,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -33973,16 +33973,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813461</v>
@@ -33994,7 +33994,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34210,10 +34210,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
@@ -34222,16 +34222,16 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34392,7 +34392,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34447,31 +34447,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>396.4775252873441</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.29709682323572</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279158</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M12" t="n">
-        <v>529.6284959442291</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>486.285423769286</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>726.0955696406584</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>286.9827555116981</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>519.3142458805481</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>548.168101429018</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>585.5046895768593</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>64.38097739326282</v>
       </c>
       <c r="O24" t="n">
-        <v>327.5415626537393</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>573.5770486155639</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>127.5924491828178</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>606.9348235263712</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>293.2045129236106</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>550.4004366997698</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>624.26619987531</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>265.1358132040107</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1820986.452454481</v>
+        <v>1825925.715303513</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>612584.65190609</v>
+        <v>494796.3681352906</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>362.2460332992872</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>112.1443580694847</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>136.1916198885552</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>235.5000960026868</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>79.13678349751333</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>115.4099562361883</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>17.36390763391859</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6.935486919842822</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>83.69283718035074</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>39.01104463634053</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1192,7 +1192,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586891</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634776</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>139.2562370363943</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>34.94676868416073</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>50.58981020589772</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>110.1949644673082</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>109.9093185292946</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>143.3158222056515</v>
+        <v>164.963311124306</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>167.5476332178971</v>
+        <v>148.7416974947219</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>52.25722329313176</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>206.8933087008745</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>137.7497637955644</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>125.3064083316245</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>255.8134085375531</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>15.74955790720865</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>183.4653217847137</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2583.871961655107</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.237294627169</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2111.475509265261</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1780.41262192169</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1780.41262192169</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1780.41262192169</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1780.41262192169</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
         <v>814.0449459359563</v>
@@ -4409,19 +4409,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="E4" t="n">
         <v>200.8329293182748</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>490.2500993552354</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>490.2500993552354</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1443.489535627676</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C5" t="n">
-        <v>1443.489535627676</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D5" t="n">
-        <v>1443.489535627676</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2306.910021150891</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2306.910021150891</v>
       </c>
       <c r="W5" t="n">
-        <v>1816.955293888756</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="X5" t="n">
-        <v>1443.489535627676</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y5" t="n">
-        <v>1443.489535627676</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,19 +4649,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>548.5954256477204</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="E7" t="n">
-        <v>400.6823320653273</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F7" t="n">
-        <v>400.6823320653273</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
         <v>393.6767897220517</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C8" t="n">
-        <v>1293.521057189058</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D8" t="n">
-        <v>935.255358582308</v>
+        <v>1635.28076286629</v>
       </c>
       <c r="E8" t="n">
-        <v>549.4671059840637</v>
+        <v>1249.492510268045</v>
       </c>
       <c r="F8" t="n">
-        <v>138.4812011944561</v>
+        <v>838.5066054784379</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>420.5427973766248</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>93.34807741262762</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028581</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028581</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171743</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M12" t="n">
-        <v>1479.482307609636</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N12" t="n">
-        <v>1824.002963247254</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O12" t="n">
-        <v>2072.756377331216</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>391.9645427683686</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="C13" t="n">
-        <v>391.9645427683686</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D13" t="n">
-        <v>391.9645427683686</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E13" t="n">
-        <v>244.0514491859755</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909233</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909233</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033465</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>619.9540936663859</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X13" t="n">
-        <v>391.9645427683686</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="Y13" t="n">
-        <v>391.9645427683686</v>
+        <v>1023.439203208485</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,52 +5275,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028583</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M15" t="n">
-        <v>865.5852378527471</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N15" t="n">
-        <v>1669.996816116898</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O15" t="n">
-        <v>2339.460577419557</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>613.801187480228</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C16" t="n">
-        <v>562.7003690904323</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>562.7003690904323</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X16" t="n">
-        <v>1016.242231453998</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y16" t="n">
-        <v>795.4496523104677</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,31 +5582,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>436.8967109626376</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>1050.793780719526</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111988</v>
+        <v>1771.161069819836</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028583</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>503.0396462065435</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5749,34 +5749,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1050.793780719526</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M21" t="n">
-        <v>1819.161927111988</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>241.9805482336712</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,10 +6065,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
         <v>508.1073603047985</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.3450129705744</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C25" t="n">
-        <v>527.3450129705744</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705744</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>816.762183007535</v>
+        <v>1059.543492887903</v>
       </c>
       <c r="W25" t="n">
-        <v>527.3450129705744</v>
+        <v>770.1263228509424</v>
       </c>
       <c r="X25" t="n">
-        <v>527.3450129705744</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.3450129705744</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,55 +6223,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,19 +6293,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
         <v>508.1073603047985</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>300.420173945809</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>150.0021654937523</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>468.5954956259884</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6648,22 +6648,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,7 +6694,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6703,16 +6703,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150548</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>745.8314722131613</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6922,28 +6922,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6958,7 +6958,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>850.2141304319072</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>681.2779475040003</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>531.1613080916645</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>383.2482145092714</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>236.3582670113611</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X37" t="n">
-        <v>241.9805482336712</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y37" t="n">
-        <v>241.9805482336712</v>
+        <v>850.2141304319072</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7165,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,16 +7250,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
         <v>334.2881267578673</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>247.6350999123426</v>
+        <v>391.9645427683688</v>
       </c>
       <c r="C40" t="n">
-        <v>247.6350999123426</v>
+        <v>391.9645427683688</v>
       </c>
       <c r="D40" t="n">
-        <v>247.6350999123426</v>
+        <v>391.9645427683688</v>
       </c>
       <c r="E40" t="n">
-        <v>247.6350999123426</v>
+        <v>391.9645427683688</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>1240.518888196738</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V40" t="n">
-        <v>985.8343999908507</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W40" t="n">
-        <v>696.41722995389</v>
+        <v>619.9540936663861</v>
       </c>
       <c r="X40" t="n">
-        <v>468.4276790558727</v>
+        <v>391.9645427683688</v>
       </c>
       <c r="Y40" t="n">
-        <v>247.6350999123426</v>
+        <v>391.9645427683688</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,25 +7414,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>563.1598612984388</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>394.223678370532</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1483.007626207187</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1483.007626207187</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.590456170226</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>965.6009052722087</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.8083261286786</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7833,22 +7833,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,7 +9011,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9257,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9494,10 +9494,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9740,7 +9740,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>40.57574314554299</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>110.4742793387705</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>116.6570108927301</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,10 +23706,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>108.3896888847866</v>
       </c>
     </row>
     <row r="17">
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>57.33750256933322</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>75.26883114644332</v>
+        <v>53.6213422277888</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,19 +24417,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>84.5900101059309</v>
+        <v>103.3959458291061</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>58.16202217114022</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="32">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25128,10 +25128,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>18.81634668816264</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.51615797628583</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>28.74380466781315</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>20.11463969130672</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>30.42394386102424</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,13 +25839,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>270.4877944913687</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>14.45548819888955</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="15">
@@ -26316,7 +26316,7 @@
         <v>492625.0619185695</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
@@ -26325,10 +26325,10 @@
         <v>469234.8716852503</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852504</v>
@@ -26337,22 +26337,22 @@
         <v>469234.8716852505</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="N2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852502</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852504</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768954</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758694</v>
@@ -26453,7 +26453,7 @@
         <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758694</v>
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26505,7 +26505,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-319261.0345400035</v>
       </c>
       <c r="C6" t="n">
-        <v>270706.844674541</v>
+        <v>270706.8446745413</v>
       </c>
       <c r="D6" t="n">
-        <v>270706.8446745411</v>
+        <v>270706.8446745414</v>
       </c>
       <c r="E6" t="n">
-        <v>-149674.8756906592</v>
+        <v>-148797.7435569105</v>
       </c>
       <c r="F6" t="n">
-        <v>375485.1607862364</v>
+        <v>376362.2929199855</v>
       </c>
       <c r="G6" t="n">
-        <v>375485.1607862361</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="H6" t="n">
-        <v>375485.1607862362</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="I6" t="n">
-        <v>375485.1607862364</v>
+        <v>376362.2929199858</v>
       </c>
       <c r="J6" t="n">
-        <v>199061.9415936434</v>
+        <v>199939.0737273927</v>
       </c>
       <c r="K6" t="n">
-        <v>375485.1607862362</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="L6" t="n">
-        <v>375485.1607862361</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="M6" t="n">
-        <v>240684.1455523992</v>
+        <v>241561.2776861487</v>
       </c>
       <c r="N6" t="n">
-        <v>375485.1607862363</v>
+        <v>376362.2929199858</v>
       </c>
       <c r="O6" t="n">
-        <v>375485.1607862361</v>
+        <v>376362.2929199858</v>
       </c>
       <c r="P6" t="n">
-        <v>375485.1607862363</v>
+        <v>376362.2929199858</v>
       </c>
     </row>
   </sheetData>
@@ -26743,28 +26743,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370131</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>44.63001244242423</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>62.27135473948688</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>10.24234275801402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>50.78177823929096</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>302.7935865747485</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>135.814211272101</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>131.2515653842938</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>160.3743153392081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>330.0913328404442</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>112.9202716085207</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060684</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31141,10 +31141,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
-        <v>149.8971812516338</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31369,7 +31369,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31384,7 +31384,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>112.0339517411533</v>
       </c>
       <c r="P12" t="n">
-        <v>301.7970625436791</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32083,19 +32083,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>301.7970625436787</v>
       </c>
       <c r="P15" t="n">
-        <v>102.4943942860912</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32104,10 +32104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,19 +32314,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>216.4869287318327</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>261.755925085578</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32557,13 +32557,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>315.882135905433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>344.6639853288867</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -32812,13 +32812,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,16 +32964,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33034,7 +33034,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
         <v>392.6063366508803</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33271,7 +33271,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
         <v>392.6063366508803</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33426,7 +33426,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
@@ -33918,7 +33918,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34392,7 +34392,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,10 +34789,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594833</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>363.3000265734383</v>
       </c>
       <c r="P12" t="n">
-        <v>486.285423769286</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415662</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>553.0631373759638</v>
       </c>
       <c r="P15" t="n">
-        <v>286.9827555116981</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>343.1107267700523</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>609.7565873457983</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>548.168101429018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>692.6646475891069</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
         <v>64.38097739326282</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>740.6069989111005</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>740.6069989111005</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
